--- a/BuildTool/Config/Item.xlsx
+++ b/BuildTool/Config/Item.xlsx
@@ -56,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemType|alias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +101,14 @@
   </si>
   <si>
     <t>key1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -512,7 +512,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -531,21 +531,21 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -575,7 +575,7 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -586,10 +586,10 @@
         <v>10001</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -600,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -611,10 +611,10 @@
         <v>10003</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
